--- a/DACS-Database-Schema.xlsx
+++ b/DACS-Database-Schema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="895" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="895"/>
   </bookViews>
   <sheets>
     <sheet name="Operator" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,11 @@
     <sheet name="Cust_Checklist" sheetId="17" r:id="rId10"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="69">
   <si>
     <t>User_Name</t>
   </si>
@@ -222,6 +221,15 @@
   </si>
   <si>
     <t>Checklist pending</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>DOB</t>
   </si>
 </sst>
 </file>
@@ -624,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,15 +644,16 @@
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" customWidth="1"/>
-    <col min="9" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="27.42578125" customWidth="1"/>
+    <col min="12" max="13" width="10.28515625" customWidth="1"/>
+    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
@@ -661,28 +670,37 @@
         <v>34</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -698,29 +716,32 @@
       <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1">
+      <c r="J2" s="1">
         <v>9923605562</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="3">
+      <c r="L2" s="3">
         <v>3</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="5">
-        <v>43938.438194444447</v>
-      </c>
-      <c r="L2" s="5">
-        <v>43938.438194444447</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N2" s="5">
+        <v>43938.438194444447</v>
+      </c>
+      <c r="O2" s="5">
+        <v>43938.438194444447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -733,8 +754,11 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -747,8 +771,11 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -761,8 +788,11 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -775,8 +805,11 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -789,8 +822,11 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -803,8 +839,11 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -817,8 +856,11 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -831,8 +873,11 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -845,8 +890,11 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -859,8 +907,11 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -873,8 +924,11 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -887,8 +941,11 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -901,10 +958,13 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="K2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
@@ -1023,7 +1083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1096,7 +1156,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1106,16 +1166,16 @@
   <cols>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" customWidth="1"/>
+    <col min="4" max="7" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>42</v>
       </c>
@@ -1129,25 +1189,34 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1160,26 +1229,29 @@
       <c r="D2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="3">
+      <c r="J2" s="3">
         <v>9955255500</v>
       </c>
-      <c r="H2" s="3">
+      <c r="K2" s="3">
         <v>20584752</v>
       </c>
-      <c r="I2" s="8">
-        <v>43938.438194444447</v>
-      </c>
-      <c r="J2" s="8">
-        <v>43938.438194444447</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L2" s="8">
+        <v>43938.438194444447</v>
+      </c>
+      <c r="M2" s="8">
+        <v>43938.438194444447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1190,8 +1262,11 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1202,8 +1277,11 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1214,8 +1292,11 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1226,8 +1307,11 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1238,8 +1322,11 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1250,8 +1337,11 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1262,8 +1352,11 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1274,8 +1367,11 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1286,8 +1382,11 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1298,8 +1397,11 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1310,10 +1412,13 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1494,7 +1599,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1681,7 +1786,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DACS-Database-Schema.xlsx
+++ b/DACS-Database-Schema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12250" tabRatio="808" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12250" tabRatio="808" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Operator" sheetId="1" r:id="rId1"/>
@@ -13,19 +13,20 @@
     <sheet name="Account" sheetId="7" r:id="rId4"/>
     <sheet name="Transactions" sheetId="8" r:id="rId5"/>
     <sheet name="Action" sheetId="10" r:id="rId6"/>
-    <sheet name="Reason" sheetId="11" r:id="rId7"/>
-    <sheet name="CheckList" sheetId="15" r:id="rId8"/>
-    <sheet name="OperatorAssignments" sheetId="16" r:id="rId9"/>
-    <sheet name="CustomerCheckList" sheetId="17" r:id="rId10"/>
-    <sheet name="GUID" sheetId="18" r:id="rId11"/>
-    <sheet name="ClosureAccounts" sheetId="20" r:id="rId12"/>
+    <sheet name="OperatorAssignmentStatus" sheetId="21" r:id="rId7"/>
+    <sheet name="Reason" sheetId="11" r:id="rId8"/>
+    <sheet name="CheckList" sheetId="15" r:id="rId9"/>
+    <sheet name="OperatorAssignments" sheetId="16" r:id="rId10"/>
+    <sheet name="CustomerCheckList" sheetId="17" r:id="rId11"/>
+    <sheet name="GUID" sheetId="18" r:id="rId12"/>
+    <sheet name="ClosureAccounts" sheetId="20" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="331">
   <si>
     <t>Sachin_Kothavade</t>
   </si>
@@ -994,6 +995,30 @@
   </si>
   <si>
     <t>CustomerUniqueId</t>
+  </si>
+  <si>
+    <t>b8581657-0c35-446f-bfc2-a3dd24851d6d</t>
+  </si>
+  <si>
+    <t>4bcf3460-7083-49b4-80e0-12e4d81a6637</t>
+  </si>
+  <si>
+    <t>e7323001-f22a-42d6-8501-a90c6cec47f4</t>
+  </si>
+  <si>
+    <t>6498dad4-9e42-43e1-ac5b-e2cef00ca6a1</t>
+  </si>
+  <si>
+    <t>09dab34f-cada-465b-b21a-0ec3988710ad</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>In-Progress</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -2281,7 +2306,430 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="37.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="3">
+        <v>5264872569</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="7">
+        <v>43948</v>
+      </c>
+      <c r="F2" s="7">
+        <v>43938.438194444447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5264872570</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="7">
+        <v>43948</v>
+      </c>
+      <c r="F3" s="7">
+        <v>43938.438194444447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5264872571</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="7">
+        <v>43948</v>
+      </c>
+      <c r="F4" s="7">
+        <v>43938.438194444447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5264872572</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="7">
+        <v>43948</v>
+      </c>
+      <c r="F5" s="7">
+        <v>43938.438194444447</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5264872573</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="7">
+        <v>43948</v>
+      </c>
+      <c r="F6" s="7">
+        <v>43938.438194444447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5264872574</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="7">
+        <v>43948</v>
+      </c>
+      <c r="F7" s="7">
+        <v>43938.438194444447</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5264872575</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="7">
+        <v>43948</v>
+      </c>
+      <c r="F8" s="7">
+        <v>43938.438194444447</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5264872576</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="7">
+        <v>43948</v>
+      </c>
+      <c r="F9" s="7">
+        <v>43938.438194444447</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="3">
+        <v>5264872577</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="7">
+        <v>43948</v>
+      </c>
+      <c r="F10" s="7">
+        <v>43938.438194444447</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="3">
+        <v>5264872578</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="7">
+        <v>43948</v>
+      </c>
+      <c r="F11" s="7">
+        <v>43938.438194444447</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="3">
+        <v>5264872579</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="7">
+        <v>43948</v>
+      </c>
+      <c r="F12" s="7">
+        <v>43938.438194444447</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="3">
+        <v>5264872580</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="7">
+        <v>43948</v>
+      </c>
+      <c r="F13" s="7">
+        <v>43938.438194444447</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="3">
+        <v>5264872581</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="7">
+        <v>43948</v>
+      </c>
+      <c r="F14" s="7">
+        <v>43938.438194444447</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="3">
+        <v>5264872582</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="7">
+        <v>43948</v>
+      </c>
+      <c r="F15" s="7">
+        <v>43938.438194444447</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="3">
+        <v>5264872583</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="7">
+        <v>43948</v>
+      </c>
+      <c r="F16" s="7">
+        <v>43938.438194444447</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5264872584</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="7">
+        <v>43948</v>
+      </c>
+      <c r="F17" s="7">
+        <v>43938.438194444447</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="3">
+        <v>5264872585</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="7">
+        <v>43948</v>
+      </c>
+      <c r="F18" s="7">
+        <v>43938.438194444447</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="3">
+        <v>5264872586</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="7">
+        <v>43948</v>
+      </c>
+      <c r="F19" s="7">
+        <v>43938.438194444447</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="3">
+        <v>5264872587</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="7">
+        <v>43948</v>
+      </c>
+      <c r="F20" s="7">
+        <v>43938.438194444447</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2698,7 +3146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A27"/>
   <sheetViews>
@@ -2846,7 +3294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -3859,7 +4307,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4464,7 +4912,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5071,7 +5519,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D6" sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5171,6 +5619,111 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="35.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" s="4">
+        <v>43938.438194444447</v>
+      </c>
+      <c r="D2" s="4">
+        <v>43938.438194444447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C3" s="4">
+        <v>43938.438194444447</v>
+      </c>
+      <c r="D3" s="4">
+        <v>43938.438194444447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4">
+        <v>43938.438194444447</v>
+      </c>
+      <c r="D4" s="4">
+        <v>43938.438194444447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C5" s="4">
+        <v>43938.438194444447</v>
+      </c>
+      <c r="D5" s="4">
+        <v>43938.438194444447</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C6" s="4">
+        <v>43938.438194444447</v>
+      </c>
+      <c r="D6" s="4">
+        <v>43938.438194444447</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -5233,7 +5786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -5293,427 +5846,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="37.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="3">
-        <v>5264872569</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="7">
-        <v>43948</v>
-      </c>
-      <c r="F2" s="7">
-        <v>43938.438194444447</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="3">
-        <v>5264872570</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="7">
-        <v>43948</v>
-      </c>
-      <c r="F3" s="7">
-        <v>43938.438194444447</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="3">
-        <v>5264872571</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="7">
-        <v>43948</v>
-      </c>
-      <c r="F4" s="7">
-        <v>43938.438194444447</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="3">
-        <v>5264872572</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="7">
-        <v>43948</v>
-      </c>
-      <c r="F5" s="7">
-        <v>43938.438194444447</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" s="3">
-        <v>5264872573</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="7">
-        <v>43948</v>
-      </c>
-      <c r="F6" s="7">
-        <v>43938.438194444447</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="3">
-        <v>5264872574</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="7">
-        <v>43948</v>
-      </c>
-      <c r="F7" s="7">
-        <v>43938.438194444447</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="3">
-        <v>5264872575</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="7">
-        <v>43948</v>
-      </c>
-      <c r="F8" s="7">
-        <v>43938.438194444447</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C9" s="3">
-        <v>5264872576</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="7">
-        <v>43948</v>
-      </c>
-      <c r="F9" s="7">
-        <v>43938.438194444447</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="3">
-        <v>5264872577</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="7">
-        <v>43948</v>
-      </c>
-      <c r="F10" s="7">
-        <v>43938.438194444447</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" s="3">
-        <v>5264872578</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="7">
-        <v>43948</v>
-      </c>
-      <c r="F11" s="7">
-        <v>43938.438194444447</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C12" s="3">
-        <v>5264872579</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="7">
-        <v>43948</v>
-      </c>
-      <c r="F12" s="7">
-        <v>43938.438194444447</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C13" s="3">
-        <v>5264872580</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="7">
-        <v>43948</v>
-      </c>
-      <c r="F13" s="7">
-        <v>43938.438194444447</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" s="3">
-        <v>5264872581</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="7">
-        <v>43948</v>
-      </c>
-      <c r="F14" s="7">
-        <v>43938.438194444447</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="3">
-        <v>5264872582</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="7">
-        <v>43948</v>
-      </c>
-      <c r="F15" s="7">
-        <v>43938.438194444447</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C16" s="3">
-        <v>5264872583</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="7">
-        <v>43948</v>
-      </c>
-      <c r="F16" s="7">
-        <v>43938.438194444447</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17" s="3">
-        <v>5264872584</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="7">
-        <v>43948</v>
-      </c>
-      <c r="F17" s="7">
-        <v>43938.438194444447</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="3">
-        <v>5264872585</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="7">
-        <v>43948</v>
-      </c>
-      <c r="F18" s="7">
-        <v>43938.438194444447</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" s="3">
-        <v>5264872586</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="7">
-        <v>43948</v>
-      </c>
-      <c r="F19" s="7">
-        <v>43938.438194444447</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C20" s="3">
-        <v>5264872587</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="7">
-        <v>43948</v>
-      </c>
-      <c r="F20" s="7">
-        <v>43938.438194444447</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>